--- a/DB_AGMS.xlsx
+++ b/DB_AGMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrespuertagonzalez/Documents/AGMS_Analitics/Datos/Streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26660B64-A553-504C-A595-E04DE418B2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FF2CBA-3BC0-B54A-917B-9C2952235DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="500" windowWidth="32620" windowHeight="18040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9972" uniqueCount="3659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9971" uniqueCount="3659">
   <si>
     <t>Gestión de Venta</t>
   </si>
@@ -66704,7 +66704,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -66915,9 +66915,7 @@
       <c r="E9" s="161">
         <v>45884</v>
       </c>
-      <c r="F9" s="162" t="s">
-        <v>3637</v>
-      </c>
+      <c r="F9" s="162"/>
       <c r="G9" s="163" t="s">
         <v>3638</v>
       </c>
